--- a/SalaryFond/SalaryFond/bin/Debug/net6.0-windows/Output.xlsx
+++ b/SalaryFond/SalaryFond/bin/Debug/net6.0-windows/Output.xlsx
@@ -5,16 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="afasfasd" sheetId="1" r:id="rId1"/>
-    <sheet name="ААААА" sheetId="2" r:id="rId2"/>
-    <sheet name="ИИИИИИИ" sheetId="3" r:id="rId3"/>
+    <sheet name="aaaaaa" sheetId="1" r:id="rId1"/>
+    <sheet name="bbbbbbb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -73,37 +72,73 @@
     <t>Остаток к выдаче</t>
   </si>
   <si>
-    <t>aaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>qqqqqqqq</t>
-  </si>
-  <si>
-    <t>hfggdf</t>
-  </si>
-  <si>
-    <t>ssssssssssss</t>
-  </si>
-  <si>
-    <t>zzzzzzzzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>cccccccccc</t>
-  </si>
-  <si>
-    <t>bbbbbbbb</t>
-  </si>
-  <si>
-    <t>vvvvvvvvvvv</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>wwwww</t>
-  </si>
-  <si>
-    <t>llllllll</t>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Kok</t>
+  </si>
+  <si>
+    <t>vzxzxcv</t>
+  </si>
+  <si>
+    <t>vxczxczvzx</t>
+  </si>
+  <si>
+    <t>adsfasdfasd</t>
+  </si>
+  <si>
+    <t>safasdfasd</t>
+  </si>
+  <si>
+    <t>zcvxzcxvzxv</t>
+  </si>
+  <si>
+    <t>bcvxcxbvcvbx</t>
+  </si>
+  <si>
+    <t>cZXcZCZXc</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>DasdASDsadAS</t>
+  </si>
+  <si>
+    <t>fasdfasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>trhertgert</t>
+  </si>
+  <si>
+    <t>gwergwerfwer</t>
+  </si>
+  <si>
+    <t>zcvzxcvzxzxcv</t>
+  </si>
+  <si>
+    <t>fqweqwfeqwefqw</t>
+  </si>
+  <si>
+    <t>dasDasd</t>
+  </si>
+  <si>
+    <t>gfsfdgsdfgsdfsdgdfsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rqwe rewrqwerqwe </t>
+  </si>
+  <si>
+    <t>fa sdfasd fasfsa df</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rqwer qwq wrwqer qw</t>
+  </si>
+  <si>
+    <t>adf a af asfqrwer</t>
   </si>
   <si>
     <t>Сумма</t>
@@ -118,13 +153,10 @@
     <t>Расхождения</t>
   </si>
   <si>
-    <t>ЯЯЯЯЯЯЯЯЯЯЯЯ</t>
-  </si>
-  <si>
-    <t>Повар</t>
-  </si>
-  <si>
-    <t>Охранник</t>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Programmer</t>
   </si>
 </sst>
 </file>
@@ -200,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -293,20 +325,23 @@
       <c r="B2" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="0">
-        <v>123444</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>10287</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>10287</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -315,7 +350,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0">
-        <v>12344</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
         <v>0</v>
@@ -324,7 +359,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>22343</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -339,82 +374,142 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>22343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0">
-        <v>42342</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>5520</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>5520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0">
-        <v>233333</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>7070.69677734375</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>84848</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -423,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>23333</v>
+        <v>0</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -432,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>108181</v>
+        <v>0</v>
       </c>
       <c r="O5" s="0">
         <v>0</v>
@@ -447,30 +542,30 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>108181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0">
-        <v>23333</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>191.2541046142578</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>4208</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -479,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>2333</v>
+        <v>0</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -488,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>6541</v>
+        <v>0</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -503,30 +598,30 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>6541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0">
-        <v>44444</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>3703.666748046875</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>11111</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -535,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -544,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>15555</v>
+        <v>0</v>
       </c>
       <c r="O7" s="0">
         <v>0</v>
@@ -559,30 +654,30 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>15555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0">
-        <v>22222</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>185.18333435058594</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>7407</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0">
         <v>0</v>
@@ -591,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -600,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>9629</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -615,30 +710,30 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>9629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0">
-        <v>34223</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>611.125</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>20778</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -647,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>3422</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -656,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>24200</v>
+        <v>0</v>
       </c>
       <c r="O9" s="0">
         <v>0</v>
@@ -671,56 +766,89 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>24200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0">
-        <v>45444</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>19750</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0">
+        <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>19750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0">
-        <v>44444</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>1932.3477783203125</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>7729</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
         <v>0</v>
@@ -729,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="L11" s="0">
         <v>0</v>
@@ -738,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>12173</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -753,107 +881,667 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>12173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0">
-        <v>98877</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0">
-        <v>56</v>
-      </c>
-      <c r="G12" s="0">
-        <v>1765.6607666015625</v>
-      </c>
-      <c r="H12" s="0">
-        <v>56501</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0">
-        <v>9888</v>
-      </c>
-      <c r="L12" s="0">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0">
-        <v>66389</v>
-      </c>
-      <c r="O12" s="0">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0">
-        <v>66389</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="0" t="s">
-        <v>30</v>
+      <c r="D13" s="0">
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>434</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
       </c>
       <c r="H13" s="0">
-        <f>SUM(H2:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0</v>
       </c>
       <c r="N13" s="0">
-        <f>SUM(N2:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0</v>
+      </c>
+      <c r="R13" s="0">
+        <v>0</v>
       </c>
       <c r="S13" s="0">
-        <f>SUM(S2:S12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0</v>
+      </c>
+      <c r="R14" s="0">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0">
-        <v>265587</v>
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0</v>
+      </c>
+      <c r="R15" s="0">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="0">
-        <v>-265587</v>
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0</v>
+      </c>
+      <c r="P17" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>0</v>
+      </c>
+      <c r="R17" s="0">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>0</v>
+      </c>
+      <c r="R18" s="0">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0</v>
+      </c>
+      <c r="R19" s="0">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0">
+        <v>0</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0</v>
+      </c>
+      <c r="P20" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>0</v>
+      </c>
+      <c r="R20" s="0">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>0</v>
+      </c>
+      <c r="R21" s="0">
+        <v>0</v>
+      </c>
+      <c r="S21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0">
+        <v>0</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>0</v>
+      </c>
+      <c r="R22" s="0">
+        <v>0</v>
+      </c>
+      <c r="S22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0">
+        <f>SUM(H2:H22)</f>
+      </c>
+      <c r="N23" s="0">
+        <f>SUM(N2:N22)</f>
+      </c>
+      <c r="S23" s="0">
+        <f>SUM(S2:S22)</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="0">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="0">
+        <v>129000</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,25 +1642,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>111.11111450195312</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>8889</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -981,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="0">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
         <v>0</v>
@@ -990,229 +1678,66 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>10889</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>6889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="0">
-        <v>20000</v>
+      <c r="D3" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
-      </c>
-      <c r="G3" s="0">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>2400</v>
+        <f>SUM(H2:H2)</f>
+      </c>
+      <c r="N3" s="0">
+        <f>SUM(N2:N2)</f>
       </c>
       <c r="S3" s="0">
-        <v>2400</v>
+        <f>SUM(S2:S2)</f>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="0">
-        <v>80</v>
-      </c>
-      <c r="F4" s="0">
-        <v>180</v>
-      </c>
-      <c r="H4" s="0">
-        <f>SUM(H2:H3)</f>
-      </c>
-      <c r="N4" s="0">
-        <f>SUM(N2:N3)</f>
-      </c>
-      <c r="S4" s="0">
-        <f>SUM(S2:S3)</f>
+      <c r="A4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2141230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0">
-        <v>10889</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="0">
-        <v>-889</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.5819673538208" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.42125129699707" customWidth="1"/>
-    <col min="6" max="6" width="13.222963333129883" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.03816032409668" customWidth="1"/>
-    <col min="9" max="9" width="11.356893539428711" customWidth="1"/>
-    <col min="10" max="10" width="12.822945594787598" customWidth="1"/>
-    <col min="11" max="11" width="12.829084396362305" customWidth="1"/>
-    <col min="12" max="12" width="21.923110961914062" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.886560440063477" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.393630981445312" customWidth="1"/>
-    <col min="18" max="18" width="16.961244583129883" customWidth="1"/>
-    <col min="19" max="19" width="17.368425369262695" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0">
-        <f>SUM(H2:H1)</f>
-      </c>
-      <c r="N2" s="0">
-        <f>SUM(N2:N1)</f>
-      </c>
-      <c r="S2" s="0">
-        <f>SUM(S2:S1)</f>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="0">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="0">
-        <v>200000</v>
+        <v>2141230</v>
       </c>
     </row>
   </sheetData>

--- a/SalaryFond/SalaryFond/bin/Debug/net6.0-windows/Output.xlsx
+++ b/SalaryFond/SalaryFond/bin/Debug/net6.0-windows/Output.xlsx
@@ -5,9 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Подразделение А" sheetId="1" r:id="rId1"/>
-    <sheet name="Подразделение В" sheetId="2" r:id="rId2"/>
-    <sheet name="Подразделение С" sheetId="3" r:id="rId3"/>
+    <sheet name="Иванушки" sheetId="1" r:id="rId1"/>
+    <sheet name="Кременкуль" sheetId="2" r:id="rId2"/>
+    <sheet name="Побив" sheetId="3" r:id="rId3"/>
+    <sheet name="Космическое Единство" sheetId="4" r:id="rId4"/>
+    <sheet name="Братство Кольца" sheetId="5" r:id="rId5"/>
+    <sheet name="Мстители" sheetId="6" r:id="rId6"/>
+    <sheet name="Суперы" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -73,16 +77,34 @@
     <t>Остаток к выдаче</t>
   </si>
   <si>
-    <t>Масков Максим Максимович</t>
+    <t>Петров Александр Андреевич</t>
+  </si>
+  <si>
+    <t>Певец</t>
+  </si>
+  <si>
+    <t>Гаврилов Михаил Иванович</t>
   </si>
   <si>
     <t>Повар</t>
   </si>
   <si>
-    <t>Игровмов Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>яяяя</t>
+    <t>Себастьян</t>
+  </si>
+  <si>
+    <t>Киллер</t>
+  </si>
+  <si>
+    <t>Сулупов Михаил Пестрович</t>
+  </si>
+  <si>
+    <t>Клоун</t>
+  </si>
+  <si>
+    <t>Грегори</t>
+  </si>
+  <si>
+    <t>Водитель</t>
   </si>
   <si>
     <t>Сумма</t>
@@ -97,28 +119,10 @@
     <t>Расхождения</t>
   </si>
   <si>
-    <t>Вырков Иван Генадиевич</t>
-  </si>
-  <si>
-    <t>Охранник</t>
-  </si>
-  <si>
-    <t>Самсов Константин Федорович</t>
-  </si>
-  <si>
-    <t>Уборщик</t>
-  </si>
-  <si>
-    <t>Кервон Борис Иванович</t>
-  </si>
-  <si>
-    <t>Директор</t>
-  </si>
-  <si>
-    <t>Росков Ридакул Илларионович</t>
-  </si>
-  <si>
-    <t>Филосов</t>
+    <t>Железный человек</t>
+  </si>
+  <si>
+    <t>Герой</t>
   </si>
 </sst>
 </file>
@@ -194,7 +198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -291,25 +295,25 @@
         <v>20</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>56666</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>314.81109619140625</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>61518</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="0">
         <v>0</v>
@@ -321,10 +325,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>61518</v>
       </c>
       <c r="O2" s="0">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -336,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>10000</v>
+        <v>46518</v>
       </c>
     </row>
     <row r="3">
@@ -347,7 +351,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -383,7 +387,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -395,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>21500</v>
+        <v>13967</v>
       </c>
     </row>
     <row r="4">
@@ -403,13 +407,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0">
-        <v>18060</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -421,7 +425,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -430,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -439,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>3612</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>67999</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -454,12 +458,21 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>3612</v>
+        <v>160477</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="0" t="s">
-        <v>23</v>
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -467,38 +480,147 @@
       <c r="F5" s="0">
         <v>0</v>
       </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
       <c r="H5" s="0">
-        <f>SUM(H2:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
       </c>
       <c r="N5" s="0">
-        <f>SUM(N2:N4)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
+        <v>7000</v>
+      </c>
+      <c r="P5" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0">
+        <v>0</v>
       </c>
       <c r="S5" s="0">
-        <f>SUM(S2:S4)</f>
+        <v>33884</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0">
-        <v>100000</v>
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0">
+        <v>37473</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0">
-        <v>3612</v>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0">
+        <v>170</v>
+      </c>
+      <c r="F7" s="0">
+        <v>180</v>
+      </c>
+      <c r="H7" s="0">
+        <f>SUM(H2:H6)</f>
+      </c>
+      <c r="N7" s="0">
+        <f>SUM(N2:N6)</f>
+      </c>
+      <c r="S7" s="0">
+        <f>SUM(S2:S6)</f>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0">
-        <v>96388</v>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0">
+        <v>61518</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0">
+        <v>188482</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,17 +717,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -613,147 +726,38 @@
       <c r="F2" s="0">
         <v>0</v>
       </c>
-      <c r="G2" s="0">
-        <v>0</v>
-      </c>
       <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0</v>
+        <f>SUM(H2:H1)</f>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0">
-        <v>8000</v>
-      </c>
-      <c r="P2" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0">
-        <v>0</v>
+        <f>SUM(N2:N1)</f>
       </c>
       <c r="S2" s="0">
-        <v>16106</v>
+        <f>SUM(S2:S1)</f>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0">
-        <v>14312</v>
+      <c r="B3" s="0">
+        <v>400000</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
-        <f>SUM(H2:H3)</f>
-      </c>
-      <c r="N4" s="0">
-        <f>SUM(N2:N3)</f>
-      </c>
-      <c r="S4" s="0">
-        <f>SUM(S2:S3)</f>
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0">
-        <v>200000</v>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +767,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,14 +854,425 @@
       </c>
     </row>
     <row r="2">
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <f>SUM(H2:H1)</f>
+      </c>
+      <c r="N2" s="0">
+        <f>SUM(N2:N1)</f>
+      </c>
+      <c r="S2" s="0">
+        <f>SUM(S2:S1)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0">
+        <v>700000</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5819673538208" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42125129699707" customWidth="1"/>
+    <col min="6" max="6" width="13.222963333129883" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.03816032409668" customWidth="1"/>
+    <col min="9" max="9" width="11.356893539428711" customWidth="1"/>
+    <col min="10" max="10" width="12.822945594787598" customWidth="1"/>
+    <col min="11" max="11" width="12.829084396362305" customWidth="1"/>
+    <col min="12" max="12" width="21.923110961914062" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.886560440063477" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.393630981445312" customWidth="1"/>
+    <col min="18" max="18" width="16.961244583129883" customWidth="1"/>
+    <col min="19" max="19" width="17.368425369262695" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <f>SUM(H2:H1)</f>
+      </c>
+      <c r="N2" s="0">
+        <f>SUM(N2:N1)</f>
+      </c>
+      <c r="S2" s="0">
+        <f>SUM(S2:S1)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5819673538208" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42125129699707" customWidth="1"/>
+    <col min="6" max="6" width="13.222963333129883" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.03816032409668" customWidth="1"/>
+    <col min="9" max="9" width="11.356893539428711" customWidth="1"/>
+    <col min="10" max="10" width="12.822945594787598" customWidth="1"/>
+    <col min="11" max="11" width="12.829084396362305" customWidth="1"/>
+    <col min="12" max="12" width="21.923110961914062" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.886560440063477" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.393630981445312" customWidth="1"/>
+    <col min="18" max="18" width="16.961244583129883" customWidth="1"/>
+    <col min="19" max="19" width="17.368425369262695" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <f>SUM(H2:H1)</f>
+      </c>
+      <c r="N2" s="0">
+        <f>SUM(N2:N1)</f>
+      </c>
+      <c r="S2" s="0">
+        <f>SUM(S2:S1)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0">
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0">
+        <v>228000</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5819673538208" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42125129699707" customWidth="1"/>
+    <col min="6" max="6" width="13.222963333129883" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.03816032409668" customWidth="1"/>
+    <col min="9" max="9" width="11.356893539428711" customWidth="1"/>
+    <col min="10" max="10" width="12.822945594787598" customWidth="1"/>
+    <col min="11" max="11" width="12.829084396362305" customWidth="1"/>
+    <col min="12" max="12" width="21.923110961914062" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.886560440063477" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.393630981445312" customWidth="1"/>
+    <col min="18" max="18" width="16.961244583129883" customWidth="1"/>
+    <col min="19" max="19" width="17.368425369262695" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -893,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>80000</v>
+        <v>100</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -905,21 +1320,12 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>170000</v>
+        <v>408900</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -927,88 +1333,175 @@
       <c r="F3" s="0">
         <v>0</v>
       </c>
-      <c r="G3" s="0">
-        <v>0</v>
-      </c>
       <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0">
-        <v>0</v>
+        <f>SUM(H2:H2)</f>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0">
-        <v>700</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0">
-        <v>0</v>
+        <f>SUM(N2:N2)</f>
       </c>
       <c r="S3" s="0">
-        <v>31300</v>
+        <f>SUM(S2:S2)</f>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0">
-        <f>SUM(H2:H3)</f>
-      </c>
-      <c r="N4" s="0">
-        <f>SUM(N2:N3)</f>
-      </c>
-      <c r="S4" s="0">
-        <f>SUM(S2:S3)</f>
+      <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0">
+        <v>333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0">
-        <v>235000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0">
-        <v>235000</v>
+        <v>333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5819673538208" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42125129699707" customWidth="1"/>
+    <col min="6" max="6" width="13.222963333129883" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.03816032409668" customWidth="1"/>
+    <col min="9" max="9" width="11.356893539428711" customWidth="1"/>
+    <col min="10" max="10" width="12.822945594787598" customWidth="1"/>
+    <col min="11" max="11" width="12.829084396362305" customWidth="1"/>
+    <col min="12" max="12" width="21.923110961914062" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.886560440063477" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.393630981445312" customWidth="1"/>
+    <col min="18" max="18" width="16.961244583129883" customWidth="1"/>
+    <col min="19" max="19" width="17.368425369262695" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <f>SUM(H2:H1)</f>
+      </c>
+      <c r="N2" s="0">
+        <f>SUM(N2:N1)</f>
+      </c>
+      <c r="S2" s="0">
+        <f>SUM(S2:S1)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0">
+        <v>233330</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0">
+        <v>233330</v>
       </c>
     </row>
   </sheetData>
